--- a/data/data_monitoreo_ciudad_de_dios.xlsx
+++ b/data/data_monitoreo_ciudad_de_dios.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -512,33 +512,33 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LLANOS HUACCHA BRITSY</t>
+          <t>URBINA ANTICONA ALEX BRUNO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OLIVA MUÑOZ LOURDES ARACELY</t>
+          <t>LLANOS HUACCHA BRITSY</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>URBINA ANTICONA ALEX BRUNO</t>
+          <t>OLIVA MUÑOZ LOURDES ARACELY</t>
         </is>
       </c>
       <c r="B11" t="n">

--- a/data/data_monitoreo_ciudad_de_dios.xlsx
+++ b/data/data_monitoreo_ciudad_de_dios.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
@@ -472,57 +472,57 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLANCO LOZANO ANDREA MILAGROS</t>
+          <t>URBINA ANTICONA ALEX BRUNO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BURGA MEDINA SHIRLEY ROCIO</t>
+          <t>SANCHEZ SALDAÑA FRANK REGINALDO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SANCHEZ SALDAÑA FRANK REGINALDO</t>
+          <t>BURGA MEDINA SHIRLEY ROCIO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DE LA CRUZ CARDENAS RUTH LUCERO</t>
+          <t>BLANCO LOZANO ANDREA MILAGROS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>URBINA ANTICONA ALEX BRUNO</t>
+          <t>DE LA CRUZ CARDENAS RUTH LUCERO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">

--- a/data/data_monitoreo_ciudad_de_dios.xlsx
+++ b/data/data_monitoreo_ciudad_de_dios.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -492,27 +492,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BURGA MEDINA SHIRLEY ROCIO</t>
+          <t>BLANCO LOZANO ANDREA MILAGROS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLANCO LOZANO ANDREA MILAGROS</t>
+          <t>BURGA MEDINA SHIRLEY ROCIO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">

--- a/data/data_monitoreo_ciudad_de_dios.xlsx
+++ b/data/data_monitoreo_ciudad_de_dios.xlsx
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SANCHEZ LUCUMI DIANA</t>
+          <t>LIDIA KATHERINE CHAVEZ REYES</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LIDIA KATHERINE CHAVEZ REYES</t>
+          <t>SANCHEZ LUCUMI DIANA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
@@ -472,57 +472,57 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>URBINA ANTICONA ALEX BRUNO</t>
+          <t>SANCHEZ SALDAÑA FRANK REGINALDO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SANCHEZ SALDAÑA FRANK REGINALDO</t>
+          <t>BLANCO LOZANO ANDREA MILAGROS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLANCO LOZANO ANDREA MILAGROS</t>
+          <t>BURGA MEDINA SHIRLEY ROCIO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BURGA MEDINA SHIRLEY ROCIO</t>
+          <t>DE LA CRUZ CARDENAS RUTH LUCERO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DE LA CRUZ CARDENAS RUTH LUCERO</t>
+          <t>URBINA ANTICONA ALEX BRUNO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">

--- a/data/data_monitoreo_ciudad_de_dios.xlsx
+++ b/data/data_monitoreo_ciudad_de_dios.xlsx
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SANCHEZ SALDAÑA FRANK REGINALDO</t>
+          <t>URBINA ANTICONA ALEX BRUNO</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -488,17 +488,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLANCO LOZANO ANDREA MILAGROS</t>
+          <t>SANCHEZ SALDAÑA FRANK REGINALDO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BURGA MEDINA SHIRLEY ROCIO</t>
+          <t>BLANCO LOZANO ANDREA MILAGROS</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -508,21 +508,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DE LA CRUZ CARDENAS RUTH LUCERO</t>
+          <t>BURGA MEDINA SHIRLEY ROCIO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>URBINA ANTICONA ALEX BRUNO</t>
+          <t>DE LA CRUZ CARDENAS RUTH LUCERO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">

--- a/data/data_monitoreo_ciudad_de_dios.xlsx
+++ b/data/data_monitoreo_ciudad_de_dios.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">

--- a/data/data_monitoreo_ciudad_de_dios.xlsx
+++ b/data/data_monitoreo_ciudad_de_dios.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
@@ -492,27 +492,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLANCO LOZANO ANDREA MILAGROS</t>
+          <t>BURGA MEDINA SHIRLEY ROCIO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BURGA MEDINA SHIRLEY ROCIO</t>
+          <t>BLANCO LOZANO ANDREA MILAGROS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
